--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3740.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3740.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.235727444497804</v>
+        <v>3.691559791564941</v>
       </c>
       <c r="B1">
-        <v>2.440605541228459</v>
+        <v>2.835700511932373</v>
       </c>
       <c r="C1">
-        <v>5.044363105071357</v>
+        <v>1.407265305519104</v>
       </c>
       <c r="D1">
-        <v>2.965939038176851</v>
+        <v>0.6675335764884949</v>
       </c>
       <c r="E1">
-        <v>1.163586226740826</v>
+        <v>0.6232852935791016</v>
       </c>
     </row>
   </sheetData>
